--- a/xlsx/日语罗马字_intext.xlsx
+++ b/xlsx/日语罗马字_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
   <si>
     <t>日语罗马字</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E%E6%9B%B8%E5%AF%AB%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>日語書寫系統</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_日语罗马字</t>
+    <t>日语书写系统</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_日语罗马字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%B1%89%E5%AD%97</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E%E5%81%87%E5%90%8D</t>
   </si>
   <si>
-    <t>日語假名</t>
+    <t>日语假名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%81%87%E5%90%8D</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E8%91%89%E5%81%87%E5%90%8D</t>
   </si>
   <si>
-    <t>萬葉假名</t>
+    <t>万叶假名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E9%AB%94%E5%81%87%E5%90%8D</t>
   </si>
   <si>
-    <t>變體假名</t>
+    <t>变体假名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%87%E5%BC%8F%E7%BD%97%E9%A9%AC%E5%AD%97</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>日語</t>
+    <t>日语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E5%AD%97%E6%AF%8D</t>
@@ -119,9 +119,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AF%AD</t>
   </si>
   <si>
-    <t>日语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E6%9C%AC%E5%BC%8F%E7%BD%97%E9%A9%AC%E5%AD%97</t>
   </si>
   <si>
@@ -149,7 +146,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E8%8B%B1%E8%AA%9E%E6%9E%97%E9%9B%86%E6%88%90</t>
   </si>
   <si>
-    <t>和英語林集成</t>
+    <t>和英语林集成</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
@@ -161,7 +158,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E4%B8%AD%E9%A4%A8%E6%84%9B%E6%A9%98</t>
   </si>
   <si>
-    <t>田中館愛橘</t>
+    <t>田中馆爱橘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E9%9F%B5%E5%AD%A6</t>
@@ -203,39 +200,36 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B7%E7%85%A7</t>
   </si>
   <si>
-    <t>護照</t>
+    <t>护照</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E5%B2%A1%E7%AB%99_(%E5%85%B5%E5%BA%AB%E7%B8%A3)</t>
   </si>
   <si>
-    <t>豐岡站 (兵庫縣)</t>
+    <t>丰冈站 (兵库县)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E8%87%BA</t>
   </si>
   <si>
-    <t>月臺</t>
+    <t>月台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9C%8B%E6%9C%89%E9%90%B5%E9%81%93</t>
   </si>
   <si>
-    <t>日本國有鐵道</t>
+    <t>日本国有铁道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%BA%9C%E7%AB%99_(%E5%85%B5%E5%BA%AB%E7%B8%A3)</t>
   </si>
   <si>
-    <t>國府站 (兵庫縣)</t>
+    <t>国府站 (兵库县)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%93%E4%BB%A4%E5%BC%8F%E7%BE%85%E9%A6%AC%E5%AD%97</t>
   </si>
   <si>
-    <t>訓令式羅馬字</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%84%E6%AD%A6%E6%B4%9E%E7%AB%99</t>
   </si>
   <si>
@@ -245,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>電腦</t>
+    <t>电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -257,13 +251,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E7%9A%84%E4%B8%AD%E6%96%87%E7%BE%85%E9%A6%AC%E6%8B%BC%E9%9F%B3</t>
   </si>
   <si>
-    <t>台灣的中文羅馬拼音</t>
+    <t>台湾的中文罗马拼音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%8C%96</t>
@@ -281,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/BGN/PCGN%E7%BE%85%E9%A6%AC%E5%8C%96%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>BGN/PCGN羅馬化系統</t>
+    <t>BGN/PCGN罗马化系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/GOST_16876-71</t>
@@ -299,25 +293,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E9%AD%AF%E6%8B%BC%E9%9F%B3</t>
   </si>
   <si>
-    <t>耶魯拼音</t>
+    <t>耶鲁拼音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E8%8C%B2%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>吉茲字母</t>
+    <t>吉兹字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E%E7%BE%85%E9%A6%AC%E5%8C%96</t>
   </si>
   <si>
-    <t>阿拉伯語羅馬化</t>
+    <t>阿拉伯语罗马化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%8B%89%E5%A7%86%E8%AA%9E</t>
   </si>
   <si>
-    <t>亞拉姆語</t>
+    <t>亚拉姆语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_9985</t>
@@ -443,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E8%AA%9E%E6%8B%89%E4%B8%81%E5%8C%96</t>
   </si>
   <si>
-    <t>朝鮮語拉丁化</t>
+    <t>朝鲜语拉丁化</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Romanization_of_Lao</t>
@@ -473,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>敘利亞語</t>
+    <t>叙利亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E6%96%87</t>
@@ -1373,7 +1367,7 @@
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G18" t="n">
         <v>14</v>
@@ -1399,10 +1393,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
         <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1428,10 +1422,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
@@ -1457,10 +1451,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1486,10 +1480,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1515,10 +1509,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1544,10 +1538,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
         <v>35</v>
-      </c>
-      <c r="F24" t="s">
-        <v>36</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1573,10 +1567,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
         <v>45</v>
-      </c>
-      <c r="F25" t="s">
-        <v>46</v>
       </c>
       <c r="G25" t="n">
         <v>28</v>
@@ -1602,10 +1596,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
         <v>47</v>
-      </c>
-      <c r="F26" t="s">
-        <v>48</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1631,10 +1625,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s">
         <v>49</v>
-      </c>
-      <c r="F27" t="s">
-        <v>50</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1718,10 +1712,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" t="s">
         <v>51</v>
-      </c>
-      <c r="F30" t="s">
-        <v>52</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1747,10 +1741,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" t="s">
         <v>53</v>
-      </c>
-      <c r="F31" t="s">
-        <v>54</v>
       </c>
       <c r="G31" t="n">
         <v>5</v>
@@ -1776,10 +1770,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" t="s">
         <v>55</v>
-      </c>
-      <c r="F32" t="s">
-        <v>56</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -1805,10 +1799,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" t="s">
         <v>57</v>
-      </c>
-      <c r="F33" t="s">
-        <v>58</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1834,10 +1828,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" t="s">
         <v>59</v>
-      </c>
-      <c r="F34" t="s">
-        <v>60</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1863,10 +1857,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" t="s">
         <v>61</v>
-      </c>
-      <c r="F35" t="s">
-        <v>62</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -1892,10 +1886,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" t="s">
         <v>63</v>
-      </c>
-      <c r="F36" t="s">
-        <v>64</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1921,10 +1915,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" t="s">
         <v>65</v>
-      </c>
-      <c r="F37" t="s">
-        <v>66</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1950,10 +1944,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" t="s">
         <v>67</v>
-      </c>
-      <c r="F38" t="s">
-        <v>68</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1979,10 +1973,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" t="s">
         <v>69</v>
-      </c>
-      <c r="F39" t="s">
-        <v>70</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2008,10 +2002,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F40" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="G40" t="n">
         <v>6</v>
@@ -2037,10 +2031,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2066,10 +2060,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" t="s">
         <v>35</v>
-      </c>
-      <c r="F42" t="s">
-        <v>36</v>
       </c>
       <c r="G42" t="n">
         <v>10</v>
@@ -2095,10 +2089,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2124,10 +2118,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2153,10 +2147,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -2182,10 +2176,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2211,10 +2205,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G47" t="n">
         <v>34</v>
@@ -2240,10 +2234,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2269,10 +2263,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2298,10 +2292,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2327,10 +2321,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2356,10 +2350,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2385,10 +2379,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2414,10 +2408,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F54" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2443,10 +2437,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2472,10 +2466,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F56" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2501,10 +2495,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2530,10 +2524,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F58" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2559,10 +2553,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F59" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2588,10 +2582,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F60" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2617,10 +2611,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F61" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2646,10 +2640,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F62" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2675,10 +2669,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2704,10 +2698,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F64" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2733,10 +2727,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F65" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2762,10 +2756,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F66" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2791,10 +2785,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F67" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2820,10 +2814,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F68" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2849,10 +2843,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F69" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2878,10 +2872,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F70" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2907,10 +2901,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F71" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2936,10 +2930,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F72" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2965,10 +2959,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F73" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2994,10 +2988,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F74" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3023,10 +3017,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F75" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3052,10 +3046,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F76" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3081,10 +3075,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F77" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3110,10 +3104,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F78" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3139,10 +3133,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F79" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3168,10 +3162,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F80" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3197,10 +3191,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F81" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3226,10 +3220,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F82" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3255,10 +3249,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F83" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3284,10 +3278,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F84" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3313,10 +3307,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F85" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3342,10 +3336,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F86" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3371,10 +3365,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F87" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3400,10 +3394,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
